--- a/test/testObjectives/objectivesPerformance.xlsx
+++ b/test/testObjectives/objectivesPerformance.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>timeLimit</t>
   </si>
@@ -61,10 +61,139 @@
     <t>9</t>
   </si>
   <si>
+    <t>12980.8926366825</t>
+  </si>
+  <si>
+    <t>0.814592276421047</t>
+  </si>
+  <si>
+    <t>9652.1740743983</t>
+  </si>
+  <si>
+    <t>0.801629581510113</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10000.0001897431</t>
+  </si>
+  <si>
+    <t>0.808856189907586</t>
+  </si>
+  <si>
+    <t>12449.3036524183</t>
+  </si>
+  <si>
+    <t>0.808720675462468</t>
+  </si>
+  <si>
+    <t>10.3199999999924</t>
+  </si>
+  <si>
+    <t>0.130000000004657</t>
+  </si>
+  <si>
+    <t>10.3000000000029</t>
+  </si>
+  <si>
+    <t>10726.1212078487</t>
+  </si>
+  <si>
+    <t>0.810905111751055</t>
+  </si>
+  <si>
+    <t>10.2200000000012</t>
+  </si>
+  <si>
+    <t>10.4099999999889</t>
+  </si>
+  <si>
     <t>callNumber10AssetNumberS10M32L5SL3.RData</t>
   </si>
   <si>
+    <t>0.699999999999999</t>
+  </si>
+  <si>
+    <t>9652.17400407926</t>
+  </si>
+  <si>
+    <t>0.840203563682025</t>
+  </si>
+  <si>
+    <t>0.130000000000003</t>
+  </si>
+  <si>
+    <t>10000.0001208368</t>
+  </si>
+  <si>
+    <t>0.84602492697239</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>11507.3982875082</t>
+  </si>
+  <si>
+    <t>0.845566915014204</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>12980.8926956437</t>
+  </si>
+  <si>
+    <t>0.850645604822904</t>
+  </si>
+  <si>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>12980.8926523264</t>
+  </si>
+  <si>
+    <t>0.850645605489882</t>
+  </si>
+  <si>
     <t>callNumber10AssetNumberS10M35L5.RData</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>9652.17417817897</t>
+  </si>
+  <si>
+    <t>0.629190082946331</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>9826.08717544078</t>
+  </si>
+  <si>
+    <t>0.635944363424251</t>
+  </si>
+  <si>
+    <t>10.3000000000002</t>
+  </si>
+  <si>
+    <t>11826.5709898442</t>
+  </si>
+  <si>
+    <t>0.643995798296796</t>
+  </si>
+  <si>
+    <t>10.2199999999998</t>
+  </si>
+  <si>
+    <t>12980.892670463</t>
+  </si>
+  <si>
+    <t>0.653420995546037</t>
   </si>
 </sst>
 </file>
@@ -97,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,19 +240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,47 +255,352 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="110">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
@@ -186,10 +608,10 @@
     <cellStyle name="XLConnect.Header" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
     <cellStyle name="XLConnect.String" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,10 +628,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -244,7 +666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +789,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -376,13 +798,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -392,7 +814,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -401,7 +823,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,7 +832,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -420,12 +842,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -456,7 +878,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -475,7 +897,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -487,24 +909,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -530,371 +952,371 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5">
-        <v>10.4400000000023</v>
-      </c>
-      <c r="F2" s="5">
-        <v>489.55318640693798</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.80827427533233898</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="45" r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row ht="30" r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="30" r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="30" r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5">
-        <v>10.3899999999994</v>
-      </c>
-      <c r="F3" s="5">
-        <v>378.92506342333002</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.80736566769724705</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10.3899999999994</v>
-      </c>
-      <c r="F4" s="5">
-        <v>396.31636938246601</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.81459227602136097</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C9" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10.3299999999872</v>
-      </c>
-      <c r="F5" s="5">
-        <v>396.31636833695597</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.81459227642104703</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D10" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10.3899999999994</v>
-      </c>
-      <c r="F6" s="5">
-        <v>392.62853952939798</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.80872067546246795</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="C11" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="87" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6">
-        <v>10.560000000012201</v>
-      </c>
-      <c r="F7" s="6">
-        <v>376.34672047288001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.84340362976949901</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C13" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="102">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s" s="103">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s" s="104">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6">
-        <v>10.2699999999895</v>
-      </c>
-      <c r="F8" s="6">
-        <v>378.925063326535</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.84482424218557906</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6">
-        <v>10.310000000012201</v>
-      </c>
-      <c r="F9" s="6">
-        <v>396.31636911914899</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.850645605489882</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10.310000000012201</v>
-      </c>
-      <c r="F10" s="6">
-        <v>396.31637128501302</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.85064560482290397</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6">
-        <v>10.3399999999965</v>
-      </c>
-      <c r="F11" s="6">
-        <v>396.31636911914899</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.850645605489882</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10.4499999999971</v>
-      </c>
-      <c r="F12" s="7">
-        <v>376.346724414682</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.63661588537228397</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>10.2799999999988</v>
-      </c>
-      <c r="F13" s="7">
-        <v>378.925061294888</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.63991244102513201</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10.4400000000023</v>
-      </c>
-      <c r="F14" s="7">
-        <v>396.31636754091801</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.65342099732186998</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10.4700000000012</v>
-      </c>
-      <c r="F15" s="7">
-        <v>396.316370025982</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.65342099554603705</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="D15" t="s" s="105">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="106">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s" s="107">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s" s="108">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s" s="109">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test/testObjectives/objectivesPerformance.xlsx
+++ b/test/testObjectives/objectivesPerformance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
   <si>
     <t>timeLimit</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>callNumber10AssetNumberS10M35L5.RData</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment wrapText="1"/>
@@ -179,6 +182,186 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
@@ -488,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +1077,396 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>10.509999999999801</v>
+      </c>
+      <c r="F16">
+        <v>421.83461340785601</v>
+      </c>
+      <c r="G16">
+        <v>0.80334448585553897</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>100.39</v>
+      </c>
+      <c r="F17">
+        <v>387.62071527412598</v>
+      </c>
+      <c r="G17">
+        <v>0.81097897229081894</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>10.4499999999998</v>
+      </c>
+      <c r="F18">
+        <v>396.31636938246601</v>
+      </c>
+      <c r="G18">
+        <v>0.81459227602136097</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>10.309999999999899</v>
+      </c>
+      <c r="F19">
+        <v>396.31636833695597</v>
+      </c>
+      <c r="G19">
+        <v>0.81459227642104703</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10.46</v>
+      </c>
+      <c r="F20">
+        <v>392.62853952939798</v>
+      </c>
+      <c r="G20">
+        <v>0.80872067546246795</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>10.579999999999901</v>
+      </c>
+      <c r="F21">
+        <v>382.43303709342598</v>
+      </c>
+      <c r="G21">
+        <v>0.84543787809946103</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>10.309999999999899</v>
+      </c>
+      <c r="F22">
+        <v>387.62071428485399</v>
+      </c>
+      <c r="G22">
+        <v>0.84773492443453402</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>10.340000000000099</v>
+      </c>
+      <c r="F23">
+        <v>396.31636609822903</v>
+      </c>
+      <c r="G23">
+        <v>0.85064560642017495</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>10.309999999999899</v>
+      </c>
+      <c r="F24">
+        <v>396.316368264093</v>
+      </c>
+      <c r="G24">
+        <v>0.85064560575319703</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>10.3499999999999</v>
+      </c>
+      <c r="F25">
+        <v>396.31636609822903</v>
+      </c>
+      <c r="G25">
+        <v>0.85064560642017495</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>10.4199999999996</v>
+      </c>
+      <c r="F26">
+        <v>382.43303646391001</v>
+      </c>
+      <c r="G26">
+        <v>0.64133639091814998</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>10.3000000000002</v>
+      </c>
+      <c r="F27">
+        <v>387.62071398509602</v>
+      </c>
+      <c r="G27">
+        <v>0.64666671948278598</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>10.279999999999699</v>
+      </c>
+      <c r="F28">
+        <v>396.31636754091801</v>
+      </c>
+      <c r="G28">
+        <v>0.65342099732186998</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>10.329999999999901</v>
+      </c>
+      <c r="F29">
+        <v>396.31636700506198</v>
+      </c>
+      <c r="G29">
+        <v>0.653420997704794</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>10.640000000000301</v>
+      </c>
+      <c r="F30">
+        <v>383.16809084700498</v>
+      </c>
+      <c r="G30">
+        <v>0.63915261631319897</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
